--- a/src/lithium/data/La Compil des data isotopes pour Yann 12-11-2018.xlsx
+++ b/src/lithium/data/La Compil des data isotopes pour Yann 12-11-2018.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="35200" windowHeight="20380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -266,6 +266,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -357,7 +358,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -379,6 +380,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,7 +774,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -895,6 +901,7 @@
     <xf numFmtId="164" fontId="12" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="235">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
@@ -1252,11 +1259,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2116239736"/>
-        <c:axId val="-2116236632"/>
+        <c:axId val="-2116207512"/>
+        <c:axId val="-2116186888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2116239736"/>
+        <c:axId val="-2116207512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1266,13 +1273,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2116236632"/>
+        <c:crossAx val="-2116186888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2116236632"/>
+        <c:axId val="-2116186888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1800.0"/>
@@ -1291,7 +1298,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2116239736"/>
+        <c:crossAx val="-2116207512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="500.0"/>
@@ -1405,11 +1412,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2117229240"/>
-        <c:axId val="-2117224504"/>
+        <c:axId val="-2117038680"/>
+        <c:axId val="-2117043080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2117229240"/>
+        <c:axId val="-2117038680"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1432,12 +1439,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2117224504"/>
+        <c:crossAx val="-2117043080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2117224504"/>
+        <c:axId val="-2117043080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.0"/>
@@ -1466,7 +1473,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2117229240"/>
+        <c:crossAx val="-2117038680"/>
         <c:crossesAt val="0.1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
@@ -1607,11 +1614,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2117532984"/>
-        <c:axId val="-2117540392"/>
+        <c:axId val="-2116158520"/>
+        <c:axId val="-2116155624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2117532984"/>
+        <c:axId val="-2116158520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1631,13 +1638,13 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2117540392"/>
+        <c:crossAx val="-2116155624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2117540392"/>
+        <c:axId val="-2116155624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1664,7 +1671,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2117532984"/>
+        <c:crossAx val="-2116158520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.005"/>
@@ -1838,11 +1845,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2117549192"/>
-        <c:axId val="-2117433048"/>
+        <c:axId val="-2116127256"/>
+        <c:axId val="-2116124280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2117549192"/>
+        <c:axId val="-2116127256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1862,12 +1869,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2117433048"/>
+        <c:crossAx val="-2116124280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2117433048"/>
+        <c:axId val="-2116124280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500.0"/>
@@ -1895,7 +1902,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2117549192"/>
+        <c:crossAx val="-2116127256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2101,11 +2108,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2117406616"/>
-        <c:axId val="-2117403912"/>
+        <c:axId val="-2116097784"/>
+        <c:axId val="-2116094840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2117406616"/>
+        <c:axId val="-2116097784"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2116,12 +2123,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2117403912"/>
+        <c:crossAx val="-2116094840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2117403912"/>
+        <c:axId val="-2116094840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16.0"/>
@@ -2150,7 +2157,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2117406616"/>
+        <c:crossAx val="-2116097784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5.0"/>
@@ -2333,11 +2340,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2117379976"/>
-        <c:axId val="-2117377272"/>
+        <c:axId val="-2116071480"/>
+        <c:axId val="-2116068472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2117379976"/>
+        <c:axId val="-2116071480"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2348,12 +2355,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2117377272"/>
+        <c:crossAx val="-2116068472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2117377272"/>
+        <c:axId val="-2116068472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2364,13 +2371,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2117379976"/>
+        <c:crossAx val="-2116071480"/>
         <c:crossesAt val="0.1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2524,11 +2532,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2117347592"/>
-        <c:axId val="-2117344584"/>
+        <c:axId val="-2116920792"/>
+        <c:axId val="-2116923624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2117347592"/>
+        <c:axId val="-2116920792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2547,7 +2555,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2117344584"/>
+        <c:crossAx val="-2116923624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2555,7 +2563,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2117344584"/>
+        <c:axId val="-2116923624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2582,7 +2590,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2117347592"/>
+        <c:crossAx val="-2116920792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2734,11 +2742,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2117318344"/>
-        <c:axId val="-2117315384"/>
+        <c:axId val="-2116949928"/>
+        <c:axId val="-2116952824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2117318344"/>
+        <c:axId val="-2116949928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2757,7 +2765,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2117315384"/>
+        <c:crossAx val="-2116952824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2765,7 +2773,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2117315384"/>
+        <c:axId val="-2116952824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2792,7 +2800,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2117318344"/>
+        <c:crossAx val="-2116949928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2941,11 +2949,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2117285416"/>
-        <c:axId val="-2117282488"/>
+        <c:axId val="-2116982840"/>
+        <c:axId val="-2116985736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2117285416"/>
+        <c:axId val="-2116982840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2965,12 +2973,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2117282488"/>
+        <c:crossAx val="-2116985736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2117282488"/>
+        <c:axId val="-2116985736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="3.0"/>
@@ -2998,7 +3006,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2117285416"/>
+        <c:crossAx val="-2116982840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3194,11 +3202,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2117255192"/>
-        <c:axId val="-2117252456"/>
+        <c:axId val="-2117012248"/>
+        <c:axId val="-2117015352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2117255192"/>
+        <c:axId val="-2117012248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3218,12 +3226,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2117252456"/>
+        <c:crossAx val="-2117015352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2117252456"/>
+        <c:axId val="-2117015352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3250,7 +3258,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2117255192"/>
+        <c:crossAx val="-2117012248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
@@ -3940,8 +3948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84:C86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3976,7 +3984,7 @@
       <c r="C3" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="83">
+      <c r="D3" s="82">
         <v>43221</v>
       </c>
       <c r="E3" s="10">
@@ -4002,7 +4010,7 @@
       <c r="F4" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="81" t="s">
+      <c r="G4" s="80" t="s">
         <v>72</v>
       </c>
       <c r="H4" s="1"/>
@@ -4026,7 +4034,7 @@
         <f t="shared" ref="F5:F9" si="0">AVERAGE(C5:E5)</f>
         <v>62.727309413474899</v>
       </c>
-      <c r="G5" s="66">
+      <c r="G5" s="65">
         <f>STDEV(C5:E5)/1.732</f>
         <v>1.7262788470748338</v>
       </c>
@@ -4057,7 +4065,7 @@
         <f t="shared" si="0"/>
         <v>157.86843156818608</v>
       </c>
-      <c r="G6" s="66">
+      <c r="G6" s="65">
         <f t="shared" ref="G6:G9" si="1">STDEV(C6:E6)/1.732</f>
         <v>31.616015298473098</v>
       </c>
@@ -4088,7 +4096,7 @@
         <f t="shared" si="0"/>
         <v>228.35120523256319</v>
       </c>
-      <c r="G7" s="66">
+      <c r="G7" s="65">
         <f t="shared" si="1"/>
         <v>30.399896872718358</v>
       </c>
@@ -4117,7 +4125,7 @@
         <f t="shared" si="0"/>
         <v>408.86318521832311</v>
       </c>
-      <c r="G8" s="66">
+      <c r="G8" s="65">
         <f t="shared" si="1"/>
         <v>16.218698572564278</v>
       </c>
@@ -4147,7 +4155,7 @@
         <f t="shared" si="0"/>
         <v>483.5</v>
       </c>
-      <c r="G9" s="66">
+      <c r="G9" s="65">
         <f t="shared" si="1"/>
         <v>44.500369023864707</v>
       </c>
@@ -4188,17 +4196,17 @@
     </row>
     <row r="12" spans="1:29">
       <c r="B12" s="9"/>
-      <c r="C12" s="83">
+      <c r="C12" s="82">
         <v>43132</v>
       </c>
-      <c r="D12" s="83"/>
+      <c r="D12" s="82"/>
       <c r="E12" s="10">
         <v>2017</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="83">
+      <c r="G12" s="82">
         <v>43221</v>
       </c>
       <c r="H12" s="31"/>
@@ -4236,10 +4244,10 @@
       <c r="D14" s="18"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="67">
+      <c r="G14" s="66">
         <v>0.68981740999999996</v>
       </c>
-      <c r="H14" s="32">
+      <c r="H14" s="91">
         <f>AVERAGE(C14:G14)</f>
         <v>1.002612155</v>
       </c>
@@ -4247,7 +4255,7 @@
         <f>STDEV(C14:G14)</f>
         <v>0.44235857061803352</v>
       </c>
-      <c r="J14" s="80">
+      <c r="J14" s="79">
         <f>AVERAGE(H14:H16)</f>
         <v>1.0463978633333333</v>
       </c>
@@ -4275,10 +4283,10 @@
       <c r="D15" s="18"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="67">
+      <c r="G15" s="66">
         <v>0.61991671999999998</v>
       </c>
-      <c r="H15" s="32">
+      <c r="H15" s="91">
         <f t="shared" ref="H15:H18" si="3">AVERAGE(C15:G15)</f>
         <v>0.83019505999999998</v>
       </c>
@@ -4312,10 +4320,10 @@
       <c r="F16" s="18">
         <v>1.7285299999999999</v>
       </c>
-      <c r="G16" s="67">
+      <c r="G16" s="66">
         <v>1.0510598</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H16" s="91">
         <f t="shared" si="3"/>
         <v>1.306386375</v>
       </c>
@@ -4345,7 +4353,7 @@
       <c r="F17" s="18">
         <v>1.4041428</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="91">
         <f t="shared" si="3"/>
         <v>1.5671283999999999</v>
       </c>
@@ -4373,10 +4381,10 @@
         <v>2.5376555000000001</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="67">
+      <c r="G18" s="66">
         <v>2.8196677999999999</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="91">
         <f t="shared" si="3"/>
         <v>2.8916688333333336</v>
       </c>
@@ -4393,7 +4401,7 @@
     </row>
     <row r="19" spans="1:26">
       <c r="A19" s="1"/>
-      <c r="B19" s="33">
+      <c r="B19" s="32">
         <v>300</v>
       </c>
       <c r="C19" s="18">
@@ -4403,10 +4411,10 @@
       <c r="E19" s="18"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="32">
+      <c r="H19" s="91">
         <v>7.5365548000000002</v>
       </c>
-      <c r="Y19" s="33">
+      <c r="Y19" s="32">
         <v>300</v>
       </c>
       <c r="Z19">
@@ -4415,7 +4423,7 @@
     </row>
     <row r="20" spans="1:26">
       <c r="A20" s="1"/>
-      <c r="B20" s="33">
+      <c r="B20" s="32">
         <v>1500</v>
       </c>
       <c r="C20" s="18">
@@ -4425,10 +4433,10 @@
       <c r="E20" s="18"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="32">
+      <c r="H20" s="91">
         <v>12.640273000000001</v>
       </c>
-      <c r="Y20" s="33">
+      <c r="Y20" s="32">
         <v>1500</v>
       </c>
       <c r="Z20">
@@ -4437,7 +4445,7 @@
     </row>
     <row r="21" spans="1:26">
       <c r="A21" s="1"/>
-      <c r="B21" s="34">
+      <c r="B21" s="33">
         <v>3600</v>
       </c>
       <c r="C21" s="20">
@@ -4451,7 +4459,7 @@
       <c r="G21" s="16">
         <v>12.3023025</v>
       </c>
-      <c r="H21" s="32">
+      <c r="H21" s="91">
         <f t="shared" ref="H21" si="5">AVERAGE(C21:G21)</f>
         <v>14.137770166666664</v>
       </c>
@@ -4459,7 +4467,7 @@
         <f t="shared" si="4"/>
         <v>1.5912847173347338</v>
       </c>
-      <c r="Y21" s="34">
+      <c r="Y21" s="33">
         <v>3600</v>
       </c>
       <c r="Z21">
@@ -4543,11 +4551,11 @@
       <c r="E31" s="2">
         <v>57.484171415840805</v>
       </c>
-      <c r="F31" s="35">
+      <c r="F31" s="34">
         <f t="shared" ref="F31:F37" si="6">AVERAGE(C31,E31)</f>
         <v>57.484171415840805</v>
       </c>
-      <c r="G31" s="82"/>
+      <c r="G31" s="81"/>
       <c r="I31">
         <f t="shared" ref="I31:I37" si="7">1/B31</f>
         <v>3.3333333333333335</v>
@@ -4574,11 +4582,11 @@
       <c r="E32" s="2">
         <v>187.73311677578386</v>
       </c>
-      <c r="F32" s="35">
+      <c r="F32" s="34">
         <f t="shared" si="6"/>
         <v>159.86655838789193</v>
       </c>
-      <c r="G32" s="82"/>
+      <c r="G32" s="81"/>
       <c r="I32">
         <f t="shared" si="7"/>
         <v>1</v>
@@ -4605,11 +4613,11 @@
       <c r="E33" s="2">
         <v>325.98618726957824</v>
       </c>
-      <c r="F33" s="35">
+      <c r="F33" s="34">
         <f t="shared" si="6"/>
         <v>350.49309363478915</v>
       </c>
-      <c r="G33" s="82"/>
+      <c r="G33" s="81"/>
       <c r="I33">
         <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
@@ -4636,11 +4644,11 @@
       <c r="E34" s="2">
         <v>958.92851569408742</v>
       </c>
-      <c r="F34" s="35">
+      <c r="F34" s="34">
         <f t="shared" si="6"/>
         <v>909.46425784704365</v>
       </c>
-      <c r="G34" s="82"/>
+      <c r="G34" s="81"/>
       <c r="I34">
         <f t="shared" si="7"/>
         <v>0.1</v>
@@ -4665,11 +4673,11 @@
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="35">
+      <c r="F35" s="34">
         <f t="shared" si="6"/>
         <v>1320</v>
       </c>
-      <c r="G35" s="82"/>
+      <c r="G35" s="81"/>
       <c r="I35">
         <f t="shared" si="7"/>
         <v>3.3333333333333333E-2</v>
@@ -4694,11 +4702,11 @@
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="35">
+      <c r="F36" s="34">
         <f t="shared" si="6"/>
         <v>1490</v>
       </c>
-      <c r="G36" s="82"/>
+      <c r="G36" s="81"/>
       <c r="I36">
         <f t="shared" si="7"/>
         <v>1.6666666666666666E-2</v>
@@ -4717,11 +4725,11 @@
       </c>
       <c r="D37" s="15"/>
       <c r="E37" s="16"/>
-      <c r="F37" s="36">
+      <c r="F37" s="35">
         <f t="shared" si="6"/>
         <v>1560</v>
       </c>
-      <c r="G37" s="82"/>
+      <c r="G37" s="81"/>
       <c r="I37">
         <f t="shared" si="7"/>
         <v>1.1111111111111112E-2</v>
@@ -4899,36 +4907,36 @@
       </c>
     </row>
     <row r="57" spans="1:21" ht="16">
-      <c r="T57" s="55" t="s">
+      <c r="T57" s="54" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:21" ht="16">
-      <c r="B58" s="55"/>
-      <c r="C58" s="55" t="s">
+      <c r="B58" s="54"/>
+      <c r="C58" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="D58" s="55"/>
-      <c r="E58" s="55" t="s">
+      <c r="D58" s="54"/>
+      <c r="E58" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="F58" s="55" t="s">
+      <c r="F58" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="G58" s="55"/>
-      <c r="H58" s="55" t="s">
+      <c r="G58" s="54"/>
+      <c r="H58" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="I58" s="55" t="s">
+      <c r="I58" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="J58" s="55" t="s">
+      <c r="J58" s="54" t="s">
         <v>52</v>
       </c>
       <c r="R58" t="s">
         <v>6</v>
       </c>
-      <c r="S58" s="79" t="s">
+      <c r="S58" s="78" t="s">
         <v>65</v>
       </c>
       <c r="T58">
@@ -4942,7 +4950,7 @@
       <c r="A59" t="s">
         <v>6</v>
       </c>
-      <c r="B59" s="79" t="s">
+      <c r="B59" s="78" t="s">
         <v>65</v>
       </c>
       <c r="I59">
@@ -4951,115 +4959,115 @@
       <c r="J59">
         <v>0.65781627627577977</v>
       </c>
-      <c r="S59" s="52" t="s">
+      <c r="S59" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="T59" s="52">
+      <c r="T59" s="51">
         <v>1.39</v>
       </c>
-      <c r="U59" s="52">
+      <c r="U59" s="51">
         <v>0.27</v>
       </c>
     </row>
     <row r="60" spans="1:21">
-      <c r="B60" s="52" t="s">
+      <c r="B60" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="C60" s="52">
+      <c r="C60" s="51">
         <v>37</v>
       </c>
-      <c r="D60" s="52"/>
-      <c r="E60" s="52">
+      <c r="D60" s="51"/>
+      <c r="E60" s="51">
         <v>1</v>
       </c>
-      <c r="F60" s="52">
+      <c r="F60" s="51">
         <v>15</v>
       </c>
-      <c r="G60" s="52"/>
-      <c r="H60" s="52"/>
-      <c r="I60" s="52">
+      <c r="G60" s="51"/>
+      <c r="H60" s="51"/>
+      <c r="I60" s="51">
         <v>1.39</v>
       </c>
-      <c r="J60" s="52">
+      <c r="J60" s="51">
         <v>0.27</v>
       </c>
-      <c r="S60" s="53" t="s">
+      <c r="S60" s="52" t="s">
         <v>44</v>
       </c>
       <c r="T60">
         <f>(5.4+3.07)/2</f>
         <v>4.2350000000000003</v>
       </c>
-      <c r="U60" s="48">
+      <c r="U60" s="47">
         <f>STDEV(5.4,3.07)/1.414</f>
         <v>1.1651759548547775</v>
       </c>
     </row>
     <row r="61" spans="1:21">
-      <c r="B61" s="53" t="s">
+      <c r="B61" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="C61" s="54">
+      <c r="C61" s="53">
         <v>37</v>
       </c>
-      <c r="D61" s="54"/>
-      <c r="E61" s="54">
+      <c r="D61" s="53"/>
+      <c r="E61" s="53">
         <v>1</v>
       </c>
-      <c r="F61" s="54">
+      <c r="F61" s="53">
         <v>15</v>
       </c>
-      <c r="G61" s="54"/>
-      <c r="H61" s="48">
+      <c r="G61" s="53"/>
+      <c r="H61" s="47">
         <v>0.1</v>
       </c>
       <c r="I61">
         <f>(5.4+3.07)/2</f>
         <v>4.2350000000000003</v>
       </c>
-      <c r="J61" s="48">
+      <c r="J61" s="47">
         <f>STDEV(5.4,3.07)/1.414</f>
         <v>1.1651759548547775</v>
       </c>
-      <c r="S61" s="53" t="s">
+      <c r="S61" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="T61" s="48">
+      <c r="T61" s="47">
         <f>(4.5+5.389)/2</f>
         <v>4.9444999999999997</v>
       </c>
-      <c r="U61" s="48">
+      <c r="U61" s="47">
         <f>STDEV(4.5,5.389)</f>
         <v>0.62861792847484099</v>
       </c>
     </row>
     <row r="62" spans="1:21">
-      <c r="B62" s="53" t="s">
+      <c r="B62" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="C62" s="54">
+      <c r="C62" s="53">
         <v>37</v>
       </c>
-      <c r="D62" s="54"/>
-      <c r="E62" s="54">
+      <c r="D62" s="53"/>
+      <c r="E62" s="53">
         <v>1</v>
       </c>
-      <c r="F62" s="54">
+      <c r="F62" s="53">
         <v>15</v>
       </c>
-      <c r="G62" s="54"/>
-      <c r="H62" s="48">
+      <c r="G62" s="53"/>
+      <c r="H62" s="47">
         <v>0.1</v>
       </c>
-      <c r="I62" s="48">
+      <c r="I62" s="47">
         <f>(8.03-0.4)/2</f>
         <v>3.8149999999999995</v>
       </c>
-      <c r="J62" s="48">
+      <c r="J62" s="47">
         <v>0.08</v>
       </c>
-      <c r="L62" s="48"/>
-      <c r="S62" s="53" t="s">
+      <c r="L62" s="47"/>
+      <c r="S62" s="52" t="s">
         <v>61</v>
       </c>
       <c r="T62">
@@ -5070,47 +5078,47 @@
       </c>
     </row>
     <row r="63" spans="1:21">
-      <c r="B63" s="53" t="s">
+      <c r="B63" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="C63" s="54">
+      <c r="C63" s="53">
         <v>21</v>
       </c>
-      <c r="D63" s="54"/>
-      <c r="E63" s="54">
+      <c r="D63" s="53"/>
+      <c r="E63" s="53">
         <v>1</v>
       </c>
-      <c r="F63" s="54">
+      <c r="F63" s="53">
         <v>30</v>
       </c>
-      <c r="G63" s="54"/>
-      <c r="H63" s="48">
+      <c r="G63" s="53"/>
+      <c r="H63" s="47">
         <v>9.6</v>
       </c>
-      <c r="I63" s="48">
+      <c r="I63" s="47">
         <f>(4.5+5.389)/2</f>
         <v>4.9444999999999997</v>
       </c>
-      <c r="J63" s="48">
+      <c r="J63" s="47">
         <f>STDEV(4.5,5.389)</f>
         <v>0.62861792847484099</v>
       </c>
     </row>
     <row r="64" spans="1:21">
-      <c r="B64" s="53" t="s">
+      <c r="B64" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="54">
+      <c r="C64" s="53">
         <v>37</v>
       </c>
-      <c r="D64" s="54"/>
-      <c r="E64" s="54">
+      <c r="D64" s="53"/>
+      <c r="E64" s="53">
         <v>1</v>
       </c>
-      <c r="F64" s="54" t="s">
+      <c r="F64" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="G64" s="54"/>
+      <c r="G64" s="53"/>
       <c r="I64">
         <v>10.801575433333333</v>
       </c>
@@ -5119,27 +5127,27 @@
       </c>
     </row>
     <row r="66" spans="1:10">
-      <c r="B66" s="53" t="s">
+      <c r="B66" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C66" s="54">
+      <c r="C66" s="53">
         <v>37</v>
       </c>
-      <c r="D66" s="54"/>
-      <c r="E66" s="54">
+      <c r="D66" s="53"/>
+      <c r="E66" s="53">
         <v>1</v>
       </c>
-      <c r="F66" s="54">
+      <c r="F66" s="53">
         <v>15</v>
       </c>
-      <c r="G66" s="54"/>
-      <c r="H66" s="48">
+      <c r="G66" s="53"/>
+      <c r="H66" s="47">
         <v>0.1</v>
       </c>
-      <c r="I66" s="48">
+      <c r="I66" s="47">
         <v>7.7</v>
       </c>
-      <c r="J66" s="48">
+      <c r="J66" s="47">
         <v>0.13</v>
       </c>
     </row>
@@ -5164,35 +5172,35 @@
       <c r="B69" s="5"/>
     </row>
     <row r="70" spans="1:10">
-      <c r="B70" s="37" t="s">
+      <c r="B70" s="36" t="s">
         <v>26</v>
       </c>
       <c r="C70" s="31"/>
       <c r="D70" s="1"/>
     </row>
     <row r="71" spans="1:10">
-      <c r="B71" s="38" t="s">
+      <c r="B71" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C71" s="39">
+      <c r="C71" s="38">
         <v>11.472061</v>
       </c>
       <c r="D71" s="1"/>
     </row>
     <row r="72" spans="1:10">
-      <c r="B72" s="38" t="s">
+      <c r="B72" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C72" s="39">
+      <c r="C72" s="38">
         <v>8.2891432999999992</v>
       </c>
       <c r="D72" s="1"/>
     </row>
     <row r="73" spans="1:10">
-      <c r="B73" s="38" t="s">
+      <c r="B73" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C73" s="39">
+      <c r="C73" s="38">
         <f>AVERAGE(E73:F73)</f>
         <v>12.643522000000001</v>
       </c>
@@ -5208,14 +5216,14 @@
       <c r="B74" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C74" s="40">
+      <c r="C74" s="39">
         <f>AVERAGE(C71:C73)</f>
         <v>10.801575433333333</v>
       </c>
       <c r="D74" s="7"/>
     </row>
     <row r="75" spans="1:10">
-      <c r="B75" s="78" t="s">
+      <c r="B75" s="77" t="s">
         <v>63</v>
       </c>
       <c r="C75">
@@ -5314,36 +5322,36 @@
       <c r="D92" s="5"/>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="41" t="s">
+      <c r="A93" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B93" s="41"/>
-      <c r="C93" s="42"/>
-      <c r="D93" s="42"/>
+      <c r="B93" s="40"/>
+      <c r="C93" s="41"/>
+      <c r="D93" s="41"/>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="42" t="s">
+      <c r="A94" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B94" s="42"/>
-      <c r="C94" s="42">
+      <c r="B94" s="41"/>
+      <c r="C94" s="41">
         <v>13.76</v>
       </c>
-      <c r="D94" s="42"/>
+      <c r="D94" s="41"/>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="42" t="s">
+      <c r="A95" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B95" s="42"/>
+      <c r="B95" s="41"/>
       <c r="C95">
         <f>AVERAGE(D95:E95)</f>
         <v>15.055</v>
       </c>
-      <c r="D95" s="42">
+      <c r="D95" s="41">
         <v>14.98</v>
       </c>
-      <c r="E95" s="42">
+      <c r="E95" s="41">
         <v>15.13</v>
       </c>
     </row>
@@ -5396,16 +5404,16 @@
       </c>
     </row>
     <row r="102" spans="1:7">
-      <c r="B102" s="43" t="s">
+      <c r="B102" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C102" s="43">
+      <c r="C102" s="42">
         <v>5.98</v>
       </c>
-      <c r="D102" s="43"/>
+      <c r="D102" s="42"/>
     </row>
     <row r="103" spans="1:7">
-      <c r="B103" s="50" t="s">
+      <c r="B103" s="49" t="s">
         <v>66</v>
       </c>
       <c r="C103" s="5">
@@ -5436,59 +5444,59 @@
       <c r="B111" t="s">
         <v>40</v>
       </c>
-      <c r="C111" s="44">
+      <c r="C111" s="43">
         <v>13.8</v>
       </c>
-      <c r="D111" s="44"/>
+      <c r="D111" s="43"/>
     </row>
     <row r="112" spans="1:7">
       <c r="B112" t="s">
         <v>41</v>
       </c>
-      <c r="C112" s="44">
+      <c r="C112" s="43">
         <v>13.6</v>
       </c>
-      <c r="D112" s="44"/>
+      <c r="D112" s="43"/>
     </row>
     <row r="113" spans="2:6">
-      <c r="C113" s="44">
+      <c r="C113" s="43">
         <v>14.8</v>
       </c>
-      <c r="D113" s="44"/>
+      <c r="D113" s="43"/>
     </row>
     <row r="114" spans="2:6">
-      <c r="C114" s="44">
+      <c r="C114" s="43">
         <v>14.7</v>
       </c>
-      <c r="D114" s="44"/>
+      <c r="D114" s="43"/>
     </row>
     <row r="116" spans="2:6">
-      <c r="B116" s="46">
+      <c r="B116" s="45">
         <v>42795</v>
       </c>
-      <c r="C116" s="45">
+      <c r="C116" s="44">
         <v>14.5738</v>
       </c>
-      <c r="D116" s="45"/>
+      <c r="D116" s="44"/>
     </row>
     <row r="117" spans="2:6">
-      <c r="B117" s="46">
+      <c r="B117" s="45">
         <v>42887</v>
       </c>
-      <c r="C117" s="47">
+      <c r="C117" s="46">
         <v>15.35</v>
       </c>
-      <c r="D117" s="47"/>
+      <c r="D117" s="46"/>
     </row>
     <row r="118" spans="2:6">
-      <c r="B118" s="46">
+      <c r="B118" s="45">
         <v>43132</v>
       </c>
-      <c r="C118" s="48">
+      <c r="C118" s="47">
         <v>15.19</v>
       </c>
-      <c r="D118" s="48"/>
-      <c r="E118" s="45">
+      <c r="D118" s="47"/>
+      <c r="E118" s="44">
         <f>AVERAGE(C116:C118)</f>
         <v>15.037933333333333</v>
       </c>
@@ -5500,11 +5508,11 @@
       <c r="B122" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C122" s="51">
+      <c r="C122" s="50">
         <f>AVERAGE(C111:C118)</f>
         <v>14.573400000000001</v>
       </c>
-      <c r="D122" s="51"/>
+      <c r="D122" s="50"/>
       <c r="E122">
         <f>STDEV(C111:C118)</f>
         <v>0.65781627627577977</v>
@@ -5522,702 +5530,702 @@
       </c>
     </row>
     <row r="131" spans="2:15">
-      <c r="B131" s="56" t="s">
+      <c r="B131" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="C131" s="57" t="s">
+      <c r="C131" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="D131" s="57"/>
-      <c r="E131" s="57"/>
-      <c r="F131" s="58"/>
-      <c r="G131" s="58"/>
-      <c r="H131" s="59"/>
-      <c r="I131" s="58"/>
-      <c r="J131" s="60"/>
-      <c r="K131" s="61"/>
-      <c r="L131" s="62">
+      <c r="D131" s="56"/>
+      <c r="E131" s="56"/>
+      <c r="F131" s="57"/>
+      <c r="G131" s="57"/>
+      <c r="H131" s="58"/>
+      <c r="I131" s="57"/>
+      <c r="J131" s="59"/>
+      <c r="K131" s="60"/>
+      <c r="L131" s="61">
         <v>15.193963999999999</v>
       </c>
-      <c r="M131" s="63">
+      <c r="M131" s="62">
         <v>1.9135091E-2</v>
       </c>
-      <c r="N131" s="64"/>
+      <c r="N131" s="63"/>
     </row>
     <row r="132" spans="2:15">
-      <c r="B132" s="58"/>
-      <c r="C132" s="57"/>
-      <c r="D132" s="57"/>
-      <c r="E132" s="57"/>
-      <c r="F132" s="58"/>
-      <c r="G132" s="58"/>
-      <c r="H132" s="59"/>
-      <c r="I132" s="58"/>
-      <c r="J132" s="60"/>
-      <c r="K132" s="61"/>
-      <c r="L132" s="62"/>
-      <c r="M132" s="63"/>
-      <c r="N132" s="64"/>
+      <c r="B132" s="57"/>
+      <c r="C132" s="56"/>
+      <c r="D132" s="56"/>
+      <c r="E132" s="56"/>
+      <c r="F132" s="57"/>
+      <c r="G132" s="57"/>
+      <c r="H132" s="58"/>
+      <c r="I132" s="57"/>
+      <c r="J132" s="59"/>
+      <c r="K132" s="60"/>
+      <c r="L132" s="61"/>
+      <c r="M132" s="62"/>
+      <c r="N132" s="63"/>
     </row>
     <row r="133" spans="2:15">
-      <c r="B133" s="58">
+      <c r="B133" s="57">
         <v>1</v>
       </c>
-      <c r="C133" s="57" t="s">
+      <c r="C133" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="D133" s="57"/>
-      <c r="E133" s="58">
+      <c r="D133" s="56"/>
+      <c r="E133" s="57">
         <v>21</v>
       </c>
-      <c r="F133" s="58">
+      <c r="F133" s="57">
         <v>37</v>
       </c>
-      <c r="G133" s="58"/>
-      <c r="H133" s="58">
+      <c r="G133" s="57"/>
+      <c r="H133" s="57">
         <v>15</v>
       </c>
-      <c r="I133" s="65">
+      <c r="I133" s="64">
         <v>5</v>
       </c>
-      <c r="J133" s="60">
+      <c r="J133" s="59">
         <v>0</v>
       </c>
-      <c r="K133" s="66">
+      <c r="K133" s="65">
         <v>30.306560133935999</v>
       </c>
-      <c r="L133" s="67">
+      <c r="L133" s="66">
         <v>0.68981740999999996</v>
       </c>
-      <c r="M133" s="68">
+      <c r="M133" s="67">
         <v>2.1751092E-2</v>
       </c>
-      <c r="N133" s="64">
+      <c r="N133" s="63">
         <f t="shared" ref="N133:N142" si="9">L133-$K$85</f>
         <v>0.68981740999999996</v>
       </c>
     </row>
     <row r="134" spans="2:15">
-      <c r="B134" s="58">
+      <c r="B134" s="57">
         <v>2</v>
       </c>
-      <c r="C134" s="57" t="s">
+      <c r="C134" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="D134" s="57"/>
-      <c r="E134" s="58">
+      <c r="D134" s="56"/>
+      <c r="E134" s="57">
         <v>21</v>
       </c>
-      <c r="F134" s="58">
+      <c r="F134" s="57">
         <v>37</v>
       </c>
-      <c r="G134" s="58"/>
-      <c r="H134" s="58">
+      <c r="G134" s="57"/>
+      <c r="H134" s="57">
         <v>15</v>
       </c>
-      <c r="I134" s="65">
+      <c r="I134" s="64">
         <v>10</v>
       </c>
-      <c r="J134" s="60">
+      <c r="J134" s="59">
         <v>0</v>
       </c>
-      <c r="K134" s="66">
+      <c r="K134" s="65">
         <v>64.67981523792092</v>
       </c>
-      <c r="L134" s="67">
+      <c r="L134" s="66">
         <v>0.61991671999999998</v>
       </c>
-      <c r="M134" s="68">
+      <c r="M134" s="67">
         <v>1.6271084000000002E-2</v>
       </c>
-      <c r="N134" s="64">
+      <c r="N134" s="63">
         <f t="shared" si="9"/>
         <v>0.61991671999999998</v>
       </c>
     </row>
     <row r="135" spans="2:15">
-      <c r="B135" s="58">
+      <c r="B135" s="57">
         <v>3</v>
       </c>
-      <c r="C135" s="57" t="s">
+      <c r="C135" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="D135" s="57"/>
-      <c r="E135" s="58">
+      <c r="D135" s="56"/>
+      <c r="E135" s="57">
         <v>21</v>
       </c>
-      <c r="F135" s="58">
+      <c r="F135" s="57">
         <v>37</v>
       </c>
-      <c r="G135" s="58"/>
-      <c r="H135" s="58">
+      <c r="G135" s="57"/>
+      <c r="H135" s="57">
         <v>15</v>
       </c>
-      <c r="I135" s="65">
+      <c r="I135" s="64">
         <v>15</v>
       </c>
-      <c r="J135" s="60">
+      <c r="J135" s="59">
         <v>0</v>
       </c>
-      <c r="K135" s="66">
+      <c r="K135" s="65">
         <v>86.223615972108661</v>
       </c>
-      <c r="L135" s="67">
+      <c r="L135" s="66">
         <v>1.0510598</v>
       </c>
-      <c r="M135" s="68">
+      <c r="M135" s="67">
         <v>2.6109284E-2</v>
       </c>
-      <c r="N135" s="64">
+      <c r="N135" s="63">
         <f t="shared" si="9"/>
         <v>1.0510598</v>
       </c>
     </row>
     <row r="136" spans="2:15">
-      <c r="B136" s="58">
+      <c r="B136" s="57">
         <v>5</v>
       </c>
-      <c r="C136" s="57" t="s">
+      <c r="C136" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="D136" s="57"/>
-      <c r="E136" s="58">
+      <c r="D136" s="56"/>
+      <c r="E136" s="57">
         <v>21</v>
       </c>
-      <c r="F136" s="58">
+      <c r="F136" s="57">
         <v>37</v>
       </c>
-      <c r="G136" s="58"/>
-      <c r="H136" s="58">
+      <c r="G136" s="57"/>
+      <c r="H136" s="57">
         <v>15</v>
       </c>
-      <c r="I136" s="65">
+      <c r="I136" s="64">
         <v>60</v>
       </c>
-      <c r="J136" s="60">
+      <c r="J136" s="59">
         <v>0</v>
       </c>
-      <c r="K136" s="69">
+      <c r="K136" s="68">
         <v>269.22488962431015</v>
       </c>
-      <c r="L136" s="67">
+      <c r="L136" s="66">
         <v>2.8196677999999999</v>
       </c>
-      <c r="M136" s="68">
+      <c r="M136" s="67">
         <v>2.3044306000000001E-2</v>
       </c>
-      <c r="N136" s="64">
+      <c r="N136" s="63">
         <f t="shared" si="9"/>
         <v>2.8196677999999999</v>
       </c>
     </row>
     <row r="137" spans="2:15">
-      <c r="B137" s="58">
+      <c r="B137" s="57">
         <v>6</v>
       </c>
-      <c r="C137" s="57" t="s">
+      <c r="C137" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="D137" s="57"/>
-      <c r="E137" s="58">
+      <c r="D137" s="56"/>
+      <c r="E137" s="57">
         <v>9.6</v>
       </c>
-      <c r="F137" s="58">
+      <c r="F137" s="57">
         <v>37</v>
       </c>
-      <c r="G137" s="58"/>
-      <c r="H137" s="65">
+      <c r="G137" s="57"/>
+      <c r="H137" s="64">
         <v>3</v>
       </c>
-      <c r="I137" s="58" t="s">
+      <c r="I137" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="J137" s="60">
+      <c r="J137" s="59">
         <v>0</v>
       </c>
-      <c r="K137" s="66">
+      <c r="K137" s="65">
         <v>62.290600138833391</v>
       </c>
-      <c r="L137" s="67">
+      <c r="L137" s="66">
         <v>1.6516755999999999</v>
       </c>
-      <c r="M137" s="68">
+      <c r="M137" s="67">
         <v>2.385837E-2</v>
       </c>
-      <c r="N137" s="64">
+      <c r="N137" s="63">
         <f t="shared" si="9"/>
         <v>1.6516755999999999</v>
       </c>
     </row>
     <row r="138" spans="2:15">
-      <c r="B138" s="58">
+      <c r="B138" s="57">
         <v>7</v>
       </c>
-      <c r="C138" s="57" t="s">
+      <c r="C138" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="D138" s="57"/>
-      <c r="E138" s="58">
+      <c r="D138" s="56"/>
+      <c r="E138" s="57">
         <v>9.6</v>
       </c>
-      <c r="F138" s="58">
+      <c r="F138" s="57">
         <v>37</v>
       </c>
-      <c r="G138" s="58"/>
-      <c r="H138" s="65">
+      <c r="G138" s="57"/>
+      <c r="H138" s="64">
         <v>10</v>
       </c>
-      <c r="I138" s="58" t="s">
+      <c r="I138" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="J138" s="60">
+      <c r="J138" s="59">
         <v>0</v>
       </c>
-      <c r="K138" s="69">
+      <c r="K138" s="68">
         <v>157.32856896442914</v>
       </c>
-      <c r="L138" s="67">
+      <c r="L138" s="66">
         <v>1.7276951</v>
       </c>
-      <c r="M138" s="68">
+      <c r="M138" s="67">
         <v>3.6780186999999999E-2</v>
       </c>
-      <c r="N138" s="64">
+      <c r="N138" s="63">
         <f t="shared" si="9"/>
         <v>1.7276951</v>
       </c>
     </row>
     <row r="139" spans="2:15">
-      <c r="B139" s="58">
+      <c r="B139" s="57">
         <v>8</v>
       </c>
-      <c r="C139" s="57" t="s">
+      <c r="C139" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="D139" s="57"/>
-      <c r="E139" s="58">
+      <c r="D139" s="56"/>
+      <c r="E139" s="57">
         <v>9.6</v>
       </c>
-      <c r="F139" s="58">
+      <c r="F139" s="57">
         <v>37</v>
       </c>
-      <c r="G139" s="58"/>
-      <c r="H139" s="65">
+      <c r="G139" s="57"/>
+      <c r="H139" s="64">
         <v>30</v>
       </c>
-      <c r="I139" s="58" t="s">
+      <c r="I139" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="J139" s="60">
+      <c r="J139" s="59">
         <v>0</v>
       </c>
-      <c r="K139" s="69">
+      <c r="K139" s="68">
         <v>252.36653779002503</v>
       </c>
-      <c r="L139" s="62">
+      <c r="L139" s="61">
         <v>0.83920634999999999</v>
       </c>
-      <c r="M139" s="63">
+      <c r="M139" s="62">
         <v>3.5485684000000003E-2</v>
       </c>
-      <c r="N139" s="64">
+      <c r="N139" s="63">
         <f t="shared" si="9"/>
         <v>0.83920634999999999</v>
       </c>
     </row>
     <row r="140" spans="2:15">
-      <c r="B140" s="58">
+      <c r="B140" s="57">
         <v>9</v>
       </c>
-      <c r="C140" s="57" t="s">
+      <c r="C140" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="D140" s="57"/>
-      <c r="E140" s="58">
+      <c r="D140" s="56"/>
+      <c r="E140" s="57">
         <v>9.6</v>
       </c>
-      <c r="F140" s="58">
+      <c r="F140" s="57">
         <v>37</v>
       </c>
-      <c r="G140" s="58"/>
-      <c r="H140" s="65">
+      <c r="G140" s="57"/>
+      <c r="H140" s="64">
         <v>90</v>
       </c>
-      <c r="I140" s="58" t="s">
+      <c r="I140" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="J140" s="60">
+      <c r="J140" s="59">
         <v>0</v>
       </c>
-      <c r="K140" s="69">
+      <c r="K140" s="68">
         <v>309.38931908538245</v>
       </c>
-      <c r="L140" s="67">
+      <c r="L140" s="66">
         <v>1.5091853</v>
       </c>
-      <c r="M140" s="68">
+      <c r="M140" s="67">
         <v>1.7822774999999999E-2</v>
       </c>
-      <c r="N140" s="64">
+      <c r="N140" s="63">
         <f t="shared" si="9"/>
         <v>1.5091853</v>
       </c>
     </row>
     <row r="141" spans="2:15">
-      <c r="B141" s="70">
+      <c r="B141" s="69">
         <v>16</v>
       </c>
-      <c r="C141" s="71" t="s">
+      <c r="C141" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="D141" s="71"/>
-      <c r="E141" s="70">
+      <c r="D141" s="70"/>
+      <c r="E141" s="69">
         <v>21</v>
       </c>
-      <c r="F141" s="70">
+      <c r="F141" s="69">
         <v>37</v>
       </c>
-      <c r="G141" s="70"/>
-      <c r="H141" s="70">
+      <c r="G141" s="69"/>
+      <c r="H141" s="69">
         <v>30</v>
       </c>
-      <c r="I141" s="70">
+      <c r="I141" s="69">
         <v>3600</v>
       </c>
-      <c r="J141" s="72">
+      <c r="J141" s="71">
         <v>0</v>
       </c>
-      <c r="K141" s="73">
+      <c r="K141" s="72">
         <v>165.13686360520077</v>
       </c>
-      <c r="L141" s="74">
+      <c r="L141" s="73">
         <v>12.8886</v>
       </c>
-      <c r="M141" s="75">
+      <c r="M141" s="74">
         <v>1.7478875000000001E-2</v>
       </c>
-      <c r="N141" s="76">
+      <c r="N141" s="75">
         <f t="shared" si="9"/>
         <v>12.8886</v>
       </c>
-      <c r="O141" s="84">
+      <c r="O141" s="83">
         <f>AVERAGE(L141:L142)</f>
         <v>12.3023025</v>
       </c>
     </row>
     <row r="142" spans="2:15">
-      <c r="B142" s="70">
+      <c r="B142" s="69">
         <v>17</v>
       </c>
-      <c r="C142" s="71" t="s">
+      <c r="C142" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="D142" s="71"/>
-      <c r="E142" s="70">
+      <c r="D142" s="70"/>
+      <c r="E142" s="69">
         <v>21</v>
       </c>
-      <c r="F142" s="70">
+      <c r="F142" s="69">
         <v>37</v>
       </c>
-      <c r="G142" s="70"/>
-      <c r="H142" s="70">
+      <c r="G142" s="69"/>
+      <c r="H142" s="69">
         <v>30</v>
       </c>
-      <c r="I142" s="70">
+      <c r="I142" s="69">
         <v>3600</v>
       </c>
-      <c r="J142" s="72">
+      <c r="J142" s="71">
         <v>0</v>
       </c>
-      <c r="K142" s="73">
+      <c r="K142" s="72">
         <v>146.98197534605382</v>
       </c>
-      <c r="L142" s="74">
+      <c r="L142" s="73">
         <v>11.716004999999999</v>
       </c>
-      <c r="M142" s="75">
+      <c r="M142" s="74">
         <v>2.3191895000000001E-2</v>
       </c>
-      <c r="N142" s="76">
+      <c r="N142" s="75">
         <f t="shared" si="9"/>
         <v>11.716004999999999</v>
       </c>
     </row>
     <row r="143" spans="2:15">
-      <c r="B143" s="58"/>
-      <c r="C143" s="57"/>
-      <c r="D143" s="57"/>
-      <c r="E143" s="58"/>
-      <c r="F143" s="58"/>
-      <c r="G143" s="58"/>
-      <c r="H143" s="58"/>
-      <c r="I143" s="58"/>
-      <c r="J143" s="60"/>
-      <c r="K143" s="58"/>
-      <c r="L143" s="67"/>
-      <c r="M143" s="68"/>
-      <c r="N143" s="64"/>
+      <c r="B143" s="57"/>
+      <c r="C143" s="56"/>
+      <c r="D143" s="56"/>
+      <c r="E143" s="57"/>
+      <c r="F143" s="57"/>
+      <c r="G143" s="57"/>
+      <c r="H143" s="57"/>
+      <c r="I143" s="57"/>
+      <c r="J143" s="59"/>
+      <c r="K143" s="57"/>
+      <c r="L143" s="66"/>
+      <c r="M143" s="67"/>
+      <c r="N143" s="63"/>
     </row>
     <row r="144" spans="2:15">
-      <c r="B144" s="49" t="s">
+      <c r="B144" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="C144" s="49"/>
-      <c r="D144" s="49"/>
-      <c r="E144" s="49"/>
-      <c r="F144" s="49"/>
-      <c r="G144" s="49"/>
-      <c r="H144" s="49"/>
-      <c r="I144" s="49"/>
-      <c r="J144" s="60"/>
-      <c r="K144" s="49"/>
-      <c r="L144" s="49"/>
-      <c r="M144" s="49"/>
-      <c r="N144" s="77"/>
+      <c r="C144" s="48"/>
+      <c r="D144" s="48"/>
+      <c r="E144" s="48"/>
+      <c r="F144" s="48"/>
+      <c r="G144" s="48"/>
+      <c r="H144" s="48"/>
+      <c r="I144" s="48"/>
+      <c r="J144" s="59"/>
+      <c r="K144" s="48"/>
+      <c r="L144" s="48"/>
+      <c r="M144" s="48"/>
+      <c r="N144" s="76"/>
     </row>
     <row r="145" spans="2:14">
-      <c r="B145" s="49"/>
-      <c r="C145" s="49"/>
-      <c r="D145" s="49"/>
-      <c r="E145" s="49"/>
-      <c r="F145" s="49"/>
-      <c r="G145" s="49"/>
-      <c r="H145" s="49"/>
-      <c r="I145" s="49"/>
-      <c r="J145" s="49"/>
-      <c r="K145" s="49"/>
-      <c r="L145" s="49"/>
-      <c r="M145" s="49"/>
-      <c r="N145" s="49"/>
+      <c r="B145" s="48"/>
+      <c r="C145" s="48"/>
+      <c r="D145" s="48"/>
+      <c r="E145" s="48"/>
+      <c r="F145" s="48"/>
+      <c r="G145" s="48"/>
+      <c r="H145" s="48"/>
+      <c r="I145" s="48"/>
+      <c r="J145" s="48"/>
+      <c r="K145" s="48"/>
+      <c r="L145" s="48"/>
+      <c r="M145" s="48"/>
+      <c r="N145" s="48"/>
     </row>
     <row r="146" spans="2:14">
-      <c r="B146" s="58">
+      <c r="B146" s="57">
         <v>10</v>
       </c>
-      <c r="C146" s="57" t="s">
+      <c r="C146" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="D146" s="57"/>
-      <c r="E146" s="58">
+      <c r="D146" s="56"/>
+      <c r="E146" s="57">
         <v>9.6</v>
       </c>
-      <c r="F146" s="58">
+      <c r="F146" s="57">
         <v>37</v>
       </c>
-      <c r="G146" s="58"/>
-      <c r="H146" s="58">
+      <c r="G146" s="57"/>
+      <c r="H146" s="57">
         <v>3</v>
       </c>
-      <c r="I146" s="58">
+      <c r="I146" s="57">
         <v>60</v>
       </c>
-      <c r="J146" s="60">
+      <c r="J146" s="59">
         <v>0</v>
       </c>
-      <c r="K146" s="66">
+      <c r="K146" s="65">
         <v>0.25688382170428486</v>
       </c>
-      <c r="L146" s="58" t="s">
+      <c r="L146" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="M146" s="49"/>
-      <c r="N146" s="77"/>
+      <c r="M146" s="48"/>
+      <c r="N146" s="76"/>
     </row>
     <row r="147" spans="2:14">
-      <c r="B147" s="58">
+      <c r="B147" s="57">
         <v>11</v>
       </c>
-      <c r="C147" s="57" t="s">
+      <c r="C147" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="D147" s="57"/>
-      <c r="E147" s="58">
+      <c r="D147" s="56"/>
+      <c r="E147" s="57">
         <v>9.6</v>
       </c>
-      <c r="F147" s="58">
+      <c r="F147" s="57">
         <v>37</v>
       </c>
-      <c r="G147" s="58"/>
-      <c r="H147" s="58">
+      <c r="G147" s="57"/>
+      <c r="H147" s="57">
         <v>10</v>
       </c>
-      <c r="I147" s="58">
+      <c r="I147" s="57">
         <v>60</v>
       </c>
-      <c r="J147" s="60">
+      <c r="J147" s="59">
         <v>0</v>
       </c>
-      <c r="K147" s="66">
+      <c r="K147" s="65">
         <v>0.65682393662342453</v>
       </c>
-      <c r="L147" s="62">
+      <c r="L147" s="61">
         <v>2.2763585000000002</v>
       </c>
-      <c r="M147" s="63">
+      <c r="M147" s="62">
         <v>0.11169571</v>
       </c>
-      <c r="N147" s="64">
+      <c r="N147" s="63">
         <f>L147-$K$85</f>
         <v>2.2763585000000002</v>
       </c>
     </row>
     <row r="148" spans="2:14">
-      <c r="B148" s="58">
+      <c r="B148" s="57">
         <v>12</v>
       </c>
-      <c r="C148" s="57" t="s">
+      <c r="C148" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="D148" s="57"/>
-      <c r="E148" s="58">
+      <c r="D148" s="56"/>
+      <c r="E148" s="57">
         <v>9.6</v>
       </c>
-      <c r="F148" s="58">
+      <c r="F148" s="57">
         <v>37</v>
       </c>
-      <c r="G148" s="58"/>
-      <c r="H148" s="58">
+      <c r="G148" s="57"/>
+      <c r="H148" s="57">
         <v>30</v>
       </c>
-      <c r="I148" s="58">
+      <c r="I148" s="57">
         <v>60</v>
       </c>
-      <c r="J148" s="60">
+      <c r="J148" s="59">
         <v>0</v>
       </c>
-      <c r="K148" s="66">
+      <c r="K148" s="65">
         <v>2.2115284061394771</v>
       </c>
-      <c r="L148" s="62">
+      <c r="L148" s="61">
         <v>7.3153196999999999</v>
       </c>
-      <c r="M148" s="63">
+      <c r="M148" s="62">
         <v>4.9451768E-2</v>
       </c>
-      <c r="N148" s="64">
+      <c r="N148" s="63">
         <f>L148-$K$85</f>
         <v>7.3153196999999999</v>
       </c>
     </row>
     <row r="149" spans="2:14">
-      <c r="B149" s="58">
+      <c r="B149" s="57">
         <v>13</v>
       </c>
-      <c r="C149" s="57" t="s">
+      <c r="C149" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="D149" s="57"/>
-      <c r="E149" s="58">
+      <c r="D149" s="56"/>
+      <c r="E149" s="57">
         <v>9.6</v>
       </c>
-      <c r="F149" s="58">
+      <c r="F149" s="57">
         <v>37</v>
       </c>
-      <c r="G149" s="58"/>
-      <c r="H149" s="58">
+      <c r="G149" s="57"/>
+      <c r="H149" s="57">
         <v>90</v>
       </c>
-      <c r="I149" s="58">
+      <c r="I149" s="57">
         <v>60</v>
       </c>
-      <c r="J149" s="60">
+      <c r="J149" s="59">
         <v>0</v>
       </c>
-      <c r="K149" s="66">
+      <c r="K149" s="65">
         <v>2.1722964302993324</v>
       </c>
-      <c r="L149" s="67">
+      <c r="L149" s="66">
         <v>9.8694919999999993</v>
       </c>
-      <c r="M149" s="68">
+      <c r="M149" s="67">
         <v>3.4386020000000003E-2</v>
       </c>
-      <c r="N149" s="64">
+      <c r="N149" s="63">
         <f>L149-$K$85</f>
         <v>9.8694919999999993</v>
       </c>
     </row>
     <row r="150" spans="2:14">
-      <c r="B150" s="70">
+      <c r="B150" s="69">
         <v>14</v>
       </c>
-      <c r="C150" s="71" t="s">
+      <c r="C150" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="D150" s="71"/>
-      <c r="E150" s="70">
+      <c r="D150" s="70"/>
+      <c r="E150" s="69">
         <v>21</v>
       </c>
-      <c r="F150" s="70">
+      <c r="F150" s="69">
         <v>37</v>
       </c>
-      <c r="G150" s="70"/>
-      <c r="H150" s="70">
+      <c r="G150" s="69"/>
+      <c r="H150" s="69">
         <v>30</v>
       </c>
-      <c r="I150" s="70">
+      <c r="I150" s="69">
         <v>3600</v>
       </c>
-      <c r="J150" s="72">
+      <c r="J150" s="71">
         <v>0</v>
       </c>
-      <c r="K150" s="73">
+      <c r="K150" s="72">
         <v>108.34328446117925</v>
       </c>
-      <c r="L150" s="74">
+      <c r="L150" s="73">
         <v>8.1556180000000005</v>
       </c>
-      <c r="M150" s="75">
+      <c r="M150" s="74">
         <v>1.3563153999999999E-2</v>
       </c>
-      <c r="N150" s="76">
+      <c r="N150" s="75">
         <f>L150-$K$85</f>
         <v>8.1556180000000005</v>
       </c>
     </row>
     <row r="151" spans="2:14" ht="16" thickBot="1">
-      <c r="B151" s="85">
+      <c r="B151" s="84">
         <v>15</v>
       </c>
-      <c r="C151" s="86" t="s">
+      <c r="C151" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="D151" s="86"/>
-      <c r="E151" s="85">
+      <c r="D151" s="85"/>
+      <c r="E151" s="84">
         <v>21</v>
       </c>
-      <c r="F151" s="85">
+      <c r="F151" s="84">
         <v>37</v>
       </c>
-      <c r="G151" s="85"/>
-      <c r="H151" s="85">
+      <c r="G151" s="84"/>
+      <c r="H151" s="84">
         <v>30</v>
       </c>
-      <c r="I151" s="85">
+      <c r="I151" s="84">
         <v>3600</v>
       </c>
-      <c r="J151" s="87">
+      <c r="J151" s="86">
         <v>0</v>
       </c>
-      <c r="K151" s="88">
+      <c r="K151" s="87">
         <v>97.481802309682593</v>
       </c>
-      <c r="L151" s="89">
+      <c r="L151" s="88">
         <v>9.0354703999999995</v>
       </c>
-      <c r="M151" s="90">
+      <c r="M151" s="89">
         <v>2.1095715000000001E-2</v>
       </c>
-      <c r="N151" s="91">
+      <c r="N151" s="90">
         <f>L151-$K$85</f>
         <v>9.0354703999999995</v>
       </c>
     </row>
     <row r="154" spans="2:14">
-      <c r="F154" s="58">
+      <c r="F154" s="57">
         <v>3</v>
       </c>
-      <c r="G154" s="66">
+      <c r="G154" s="65">
         <v>0.25688382170428486</v>
       </c>
       <c r="I154">
@@ -6230,10 +6238,10 @@
       </c>
     </row>
     <row r="155" spans="2:14">
-      <c r="F155" s="58">
+      <c r="F155" s="57">
         <v>10</v>
       </c>
-      <c r="G155" s="66">
+      <c r="G155" s="65">
         <v>0.65682393662342453</v>
       </c>
       <c r="I155">
@@ -6246,10 +6254,10 @@
       </c>
     </row>
     <row r="156" spans="2:14">
-      <c r="F156" s="58">
+      <c r="F156" s="57">
         <v>30</v>
       </c>
-      <c r="G156" s="66">
+      <c r="G156" s="65">
         <v>2.2115284061394771</v>
       </c>
       <c r="I156">
@@ -6262,10 +6270,10 @@
       </c>
     </row>
     <row r="157" spans="2:14">
-      <c r="F157" s="58">
+      <c r="F157" s="57">
         <v>90</v>
       </c>
-      <c r="G157" s="66">
+      <c r="G157" s="65">
         <v>2.1722964302993324</v>
       </c>
       <c r="I157">
@@ -6278,18 +6286,18 @@
       </c>
     </row>
     <row r="158" spans="2:14">
-      <c r="F158" s="70">
+      <c r="F158" s="69">
         <v>30</v>
       </c>
-      <c r="G158" s="73">
+      <c r="G158" s="72">
         <v>108.34328446117925</v>
       </c>
     </row>
     <row r="159" spans="2:14" ht="16" thickBot="1">
-      <c r="F159" s="85">
+      <c r="F159" s="84">
         <v>30</v>
       </c>
-      <c r="G159" s="88">
+      <c r="G159" s="87">
         <v>97.481802309682593</v>
       </c>
     </row>

--- a/src/lithium/data/La Compil des data isotopes pour Yann 12-11-2018.xlsx
+++ b/src/lithium/data/La Compil des data isotopes pour Yann 12-11-2018.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="35200" windowHeight="20380" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="35260" windowHeight="20380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -488,8 +488,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="235">
+  <cellStyleXfs count="237">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -903,7 +905,7 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="235">
+  <cellStyles count="237">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -1021,6 +1023,7 @@
     <cellStyle name="Lien hypertexte" xfId="229" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="231" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="235" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -1138,6 +1141,7 @@
     <cellStyle name="Lien hypertexte visité" xfId="230" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="232" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="236" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3949,7 +3953,7 @@
   <dimension ref="A1:AC159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="H14" sqref="H14:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/src/lithium/data/La Compil des data isotopes pour Yann 12-11-2018.xlsx
+++ b/src/lithium/data/La Compil des data isotopes pour Yann 12-11-2018.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="35260" windowHeight="20380" tabRatio="500"/>
+    <workbookView xWindow="-40" yWindow="0" windowWidth="35300" windowHeight="20380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -266,7 +266,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -727,7 +726,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -904,6 +903,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="237">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
@@ -1263,11 +1264,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2116207512"/>
-        <c:axId val="-2116186888"/>
+        <c:axId val="-2115062472"/>
+        <c:axId val="-2115057656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2116207512"/>
+        <c:axId val="-2115062472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1277,13 +1278,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2116186888"/>
+        <c:crossAx val="-2115057656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2116186888"/>
+        <c:axId val="-2115057656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1800.0"/>
@@ -1302,7 +1303,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2116207512"/>
+        <c:crossAx val="-2115062472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="500.0"/>
@@ -1416,11 +1417,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2117038680"/>
-        <c:axId val="-2117043080"/>
+        <c:axId val="-2115931800"/>
+        <c:axId val="-2115936408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2117038680"/>
+        <c:axId val="-2115931800"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1443,12 +1444,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2117043080"/>
+        <c:crossAx val="-2115936408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2117043080"/>
+        <c:axId val="-2115936408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.0"/>
@@ -1477,7 +1478,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2117038680"/>
+        <c:crossAx val="-2115931800"/>
         <c:crossesAt val="0.1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
@@ -1618,11 +1619,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2116158520"/>
-        <c:axId val="-2116155624"/>
+        <c:axId val="-2115028376"/>
+        <c:axId val="-2115025480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2116158520"/>
+        <c:axId val="-2115028376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1642,13 +1643,13 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2116155624"/>
+        <c:crossAx val="-2115025480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2116155624"/>
+        <c:axId val="-2115025480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1675,7 +1676,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2116158520"/>
+        <c:crossAx val="-2115028376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.005"/>
@@ -1849,11 +1850,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2116127256"/>
-        <c:axId val="-2116124280"/>
+        <c:axId val="-2114997144"/>
+        <c:axId val="-2115727784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2116127256"/>
+        <c:axId val="-2114997144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1873,12 +1874,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2116124280"/>
+        <c:crossAx val="-2115727784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2116124280"/>
+        <c:axId val="-2115727784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500.0"/>
@@ -1906,7 +1907,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2116127256"/>
+        <c:crossAx val="-2114997144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2112,11 +2113,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2116097784"/>
-        <c:axId val="-2116094840"/>
+        <c:axId val="-2115753784"/>
+        <c:axId val="-2115757064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2116097784"/>
+        <c:axId val="-2115753784"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2127,12 +2128,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2116094840"/>
+        <c:crossAx val="-2115757064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2116094840"/>
+        <c:axId val="-2115757064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16.0"/>
@@ -2161,7 +2162,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2116097784"/>
+        <c:crossAx val="-2115753784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5.0"/>
@@ -2344,11 +2345,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2116071480"/>
-        <c:axId val="-2116068472"/>
+        <c:axId val="-2115780264"/>
+        <c:axId val="-2115783480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2116071480"/>
+        <c:axId val="-2115780264"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2359,12 +2360,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2116068472"/>
+        <c:crossAx val="-2115783480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2116068472"/>
+        <c:axId val="-2115783480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2375,7 +2376,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2116071480"/>
+        <c:crossAx val="-2115780264"/>
         <c:crossesAt val="0.1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2536,11 +2537,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2116920792"/>
-        <c:axId val="-2116923624"/>
+        <c:axId val="-2115812952"/>
+        <c:axId val="-2115815816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2116920792"/>
+        <c:axId val="-2115812952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2559,7 +2560,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2116923624"/>
+        <c:crossAx val="-2115815816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2567,7 +2568,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2116923624"/>
+        <c:axId val="-2115815816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2594,7 +2595,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2116920792"/>
+        <c:crossAx val="-2115812952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2746,11 +2747,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2116949928"/>
-        <c:axId val="-2116952824"/>
+        <c:axId val="-2115842088"/>
+        <c:axId val="-2115845144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2116949928"/>
+        <c:axId val="-2115842088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2769,7 +2770,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2116952824"/>
+        <c:crossAx val="-2115845144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2777,7 +2778,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2116952824"/>
+        <c:axId val="-2115845144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2804,7 +2805,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2116949928"/>
+        <c:crossAx val="-2115842088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2953,11 +2954,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2116982840"/>
-        <c:axId val="-2116985736"/>
+        <c:axId val="-2115875224"/>
+        <c:axId val="-2115878120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2116982840"/>
+        <c:axId val="-2115875224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2977,12 +2978,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2116985736"/>
+        <c:crossAx val="-2115878120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2116985736"/>
+        <c:axId val="-2115878120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="3.0"/>
@@ -3010,7 +3011,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2116982840"/>
+        <c:crossAx val="-2115875224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3206,11 +3207,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2117012248"/>
-        <c:axId val="-2117015352"/>
+        <c:axId val="-2115905576"/>
+        <c:axId val="-2115909160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2117012248"/>
+        <c:axId val="-2115905576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3230,12 +3231,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2117015352"/>
+        <c:crossAx val="-2115909160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2117015352"/>
+        <c:axId val="-2115909160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3262,7 +3263,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2117012248"/>
+        <c:crossAx val="-2115905576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
@@ -3952,8 +3953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14:H21"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5201,18 +5202,18 @@
       <c r="D72" s="1"/>
     </row>
     <row r="73" spans="1:10">
-      <c r="B73" s="37" t="s">
+      <c r="B73" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C73" s="38">
+      <c r="C73" s="92">
         <f>AVERAGE(E73:F73)</f>
         <v>12.643522000000001</v>
       </c>
-      <c r="D73" s="1"/>
-      <c r="E73">
+      <c r="D73" s="93"/>
+      <c r="E73" s="22">
         <v>12.580658</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="22">
         <v>12.706386</v>
       </c>
     </row>
